--- a/pub/Masonic/Degree Furniture & Implements v2.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
   <si>
     <t>SO &amp; JO Pedestals (optional)</t>
   </si>
@@ -30,15 +30,6 @@
     <t>Royal Arch Degree</t>
   </si>
   <si>
-    <t>Most Excellent Master Degree</t>
-  </si>
-  <si>
-    <t>Mark Master Degree</t>
-  </si>
-  <si>
-    <t>Past Master Degree</t>
-  </si>
-  <si>
     <t>Crow/Pick/Spade</t>
   </si>
   <si>
@@ -51,9 +42,6 @@
     <t>WM's Gavel</t>
   </si>
   <si>
-    <t>Royal Master Degree</t>
-  </si>
-  <si>
     <t>CG's Sword</t>
   </si>
   <si>
@@ -66,9 +54,6 @@
     <t>Purple Veil</t>
   </si>
   <si>
-    <t>Select Master Degree</t>
-  </si>
-  <si>
     <t>Arc of the Covenant in SW</t>
   </si>
   <si>
@@ -84,24 +69,6 @@
     <t>4-ply Cable Tow on Candidate</t>
   </si>
   <si>
-    <t>Bible Opened to Deuteronomy 31:24-26</t>
-  </si>
-  <si>
-    <t>Bible Opened to Proverbs 30:8-9</t>
-  </si>
-  <si>
-    <t>Bible Opened to 2nd Chronicles 36</t>
-  </si>
-  <si>
-    <t>Bible Opened to 2nd Chronicles 7</t>
-  </si>
-  <si>
-    <t>Bible Opened to Psalms 15</t>
-  </si>
-  <si>
-    <t>Bible Opened to Matthew 20:1-16</t>
-  </si>
-  <si>
     <t>Chapter Apron on Candidate</t>
   </si>
   <si>
@@ -129,9 +96,6 @@
     <t>Media (Babbling Brook, Burning Bush, Holy City)</t>
   </si>
   <si>
-    <t>Square &amp; Compass on Bible</t>
-  </si>
-  <si>
     <t>Charter</t>
   </si>
   <si>
@@ -285,12 +249,6 @@
     <t>Worshipful Master</t>
   </si>
   <si>
-    <t>Worshipful Jr. Warden</t>
-  </si>
-  <si>
-    <t>Worshiipful Sr. Warden</t>
-  </si>
-  <si>
     <t>Master Overseer</t>
   </si>
   <si>
@@ -351,9 +309,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Right Worshipful Sr.  Warden</t>
-  </si>
-  <si>
     <t>Most Excellent High Priest</t>
   </si>
   <si>
@@ -411,9 +366,6 @@
     <t>Head Cheribum</t>
   </si>
   <si>
-    <t>Chisel/Mallet (by antiroom door to receve candidate)</t>
-  </si>
-  <si>
     <t>MO's Pedestal  (in front and to right of MO)</t>
   </si>
   <si>
@@ -424,13 +376,67 @@
   </si>
   <si>
     <t>Chapter and Council Degrees</t>
+  </si>
+  <si>
+    <t>Mark Master's Degree</t>
+  </si>
+  <si>
+    <t>Past Master's Degree</t>
+  </si>
+  <si>
+    <t>Most Excellent Master's Degree</t>
+  </si>
+  <si>
+    <t>Royal Master's Degree</t>
+  </si>
+  <si>
+    <t>Select Master's Degree</t>
+  </si>
+  <si>
+    <t>Square &amp; Compass on Bible (same page as above verses)</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to Psalms 15</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to Matthew 20:1-16</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to 2nd Chronicles 7</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to 2nd Chronicles 36</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to Proverbs 30:8-9</t>
+  </si>
+  <si>
+    <t>Bible on Alter Opened to Deuteronomy 31:24-26</t>
+  </si>
+  <si>
+    <t>Chisel and Mallet (by antiroom door to receve candidate)</t>
+  </si>
+  <si>
+    <t>Right Worshipful Senior Warden</t>
+  </si>
+  <si>
+    <t>Worshiipful Senior Warden</t>
+  </si>
+  <si>
+    <t>Worshipful Junior Warden</t>
+  </si>
+  <si>
+    <t>Media (1 procession march)</t>
+  </si>
+  <si>
+    <t>Procession Music (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,14 +482,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -541,39 +539,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -583,7 +579,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -598,22 +594,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -622,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,27 +618,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,146 +944,146 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="A3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>102</v>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="13" t="s">
-        <v>105</v>
+      <c r="A5" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>90</v>
+      <c r="A6" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>89</v>
+      <c r="A7" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="12" t="s">
-        <v>99</v>
+      <c r="A17" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="12" t="s">
-        <v>100</v>
+      <c r="A18" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
@@ -1110,36 +1091,36 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="12" t="s">
-        <v>101</v>
+      <c r="A19" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="12" t="s">
-        <v>110</v>
+      <c r="A20" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -1153,34 +1134,34 @@
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="6"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1">
@@ -1189,104 +1170,104 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>102</v>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2"/>
       <c r="I41" s="2"/>
@@ -1295,21 +1276,21 @@
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="6"/>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -1321,104 +1302,103 @@
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A46" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15"/>
+      <c r="A46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A47" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>102</v>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="5" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -1432,14 +1412,14 @@
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -1452,7 +1432,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="6"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1">
@@ -1461,196 +1441,196 @@
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A65" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>102</v>
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6"/>
       <c r="B81" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="6"/>
       <c r="B82" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="6"/>
       <c r="B83" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6"/>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6"/>
       <c r="B85" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="6"/>
       <c r="B86" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6"/>
       <c r="B87" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1">
@@ -1658,217 +1638,217 @@
       <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A92" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="17"/>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A93" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>102</v>
+      <c r="A92" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.75">
+      <c r="A93" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A103" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" s="17"/>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A104" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>102</v>
+      <c r="A103" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.75">
+      <c r="A104" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6"/>
       <c r="B114" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6"/>
       <c r="B115" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6"/>
       <c r="B116" s="9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6"/>
       <c r="B117" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6"/>
       <c r="B118" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6"/>
       <c r="B120" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6"/>
       <c r="B121" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
